--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E89F260-8CF3-42E2-BDED-4D8CCA46C874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A0BD37-7C46-49F4-BD8B-C5877A94E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{5578D036-EA96-4FA4-BD75-A5101908F4DF}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{84C2E599-43C7-4A0F-ADA9-6A174F72B8A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1775A941-78B6-4347-B401-44164EA8BAEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DCA066-41C1-4F1B-A0F2-2CA911FF801D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A0BD37-7C46-49F4-BD8B-C5877A94E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54E2E80-DC6D-4996-8F24-E21AF952A485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{84C2E599-43C7-4A0F-ADA9-6A174F72B8A1}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{85556802-5F28-4CD2-B1ED-FEA562BF95CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DCA066-41C1-4F1B-A0F2-2CA911FF801D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A553542D-9412-47CA-AC74-3702B6654879}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>76.691665303773021</v>
+        <v>86.973543331260998</v>
       </c>
     </row>
   </sheetData>
